--- a/jobs/OpenAI_general/output/summary.xlsx
+++ b/jobs/OpenAI_general/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,20 +448,1618 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.749704001095845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>test151</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test29</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test11</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test156</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test27</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>test18</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>test160</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>test158</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>test20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>test133</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2199891573725004</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>test80</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>test74</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>test134</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>test73</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>test87</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>test102</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>test45</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>test89</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>test105</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1356218578827705</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>test42</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>test21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>test159</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>test26</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>test161</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>test19</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4305798118718234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>test10</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>test157</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>test17</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>test28</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>test150</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>test88</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>test104</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>test43</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>test103</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>test44</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>test135</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>test86</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>test72</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>test132</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>test75</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>test81</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>test9</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>test7</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>test6</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>test1</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>test8</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>test57</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>test68</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>test110</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>test128</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.2643553044814508</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>test50</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>test117</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.4295877151595319</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>test92</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3788668654974044</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>test66</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>test121</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>test59</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>test61</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>test95</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>test119</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>test126</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>test35</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>test32</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>test143</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>test144</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1806368604292037</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>test94</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>test118</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>test60</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>test127</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>test67</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>test93</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>test58</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>test120</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.2840604847583885</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>test51</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>test129</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.4213534473441346</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>test116</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>test56</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>test111</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>test69</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>test145</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>test142</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>test33</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>test34</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.2793115336154152</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>test137</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.4280435988642496</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>test70</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>test108</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>test84</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>test130</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>test48</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>test83</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.3744800407845219</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>test77</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.2473350647540918</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>test106</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>test139</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.07756401205511564</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>test41</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>test79</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>test101</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5418232557181124</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>test46</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>test12</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>test155</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>test15</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>test152</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>test23</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>test24</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>test100</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>test78</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>test47</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>test107</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>test40</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>test138</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>test49</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>test131</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.3135438879707563</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>test76</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>test82</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.4989332898316373</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>test136</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.3466449433934863</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>test109</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>test85</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>test71</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>test25</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>test162</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.3772472567480827</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>test22</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>test14</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>test153</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>test13</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>test154</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.6851139881183106</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>test5</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>test149</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>test31</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>test36</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>test147</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>test140</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>test38</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>test53</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>test114</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.4713662163618634</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>test98</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>test54</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.5855902774395287</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>test113</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>test62</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>test96</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>test125</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.2301581333694807</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>test91</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>test65</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>test122</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>test39</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>test141</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>test146</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.1643260729675728</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>test37</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>test30</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>test148</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>test64</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>test90</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.2702397005373949</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>test97</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>test63</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>test124</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.3978041028216588</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>test55</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>test112</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>test52</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>test115</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>test99</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
         <v>1</v>
       </c>
     </row>
